--- a/results/[0_basic]_#_inv_cost.xlsx
+++ b/results/[0_basic]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13556.8743697279</v>
+        <v>10828.9975647011</v>
       </c>
       <c r="B2" t="n">
-        <v>12807.05121601724</v>
+        <v>4884.827730520537</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>140269.0210065367</v>
+        <v>129949.7480160424</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661809</v>
+        <v>80959.25712661733</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60400.7076157763</v>
+        <v>57928.7669577511</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57998.61906960408</v>
+        <v>47727.4019780032</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>329994.9866376077</v>
+        <v>281422.3317862681</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127020.7135809762</v>
+        <v>126943.1410739935</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43653.09610321066</v>
+        <v>52552.25559528847</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>479395.7915743805</v>
+        <v>601601.2956219109</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109939.9744680742</v>
+        <v>96815.40442900374</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_inv_cost.xlsx
+++ b/results/[0_basic]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10828.9975647011</v>
+        <v>10807.88582146178</v>
       </c>
       <c r="B2" t="n">
-        <v>4884.827730520537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129949.7480160424</v>
+        <v>136044.8023863496</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661733</v>
+        <v>80959.25712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57928.7669577511</v>
+        <v>57939.83243172245</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47727.4019780032</v>
+        <v>42528.20226193505</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>281422.3317862681</v>
+        <v>287602.509905369</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>126943.1410739935</v>
+        <v>129606.8557784683</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52552.25559528847</v>
+        <v>54255.41119000787</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>601601.2956219109</v>
+        <v>600282.0661497001</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96815.40442900374</v>
+        <v>96756.12588925863</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_inv_cost.xlsx
+++ b/results/[0_basic]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10828.9975647011</v>
+        <v>10828.99756470087</v>
       </c>
       <c r="B2" t="n">
-        <v>4884.827730520537</v>
+        <v>4884.827730520959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661733</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57928.7669577511</v>
+        <v>57928.76695775077</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47727.4019780032</v>
+        <v>47727.40197800326</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>281422.3317862681</v>
+        <v>281422.3317862679</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52552.25559528847</v>
+        <v>52552.25559528896</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>601601.2956219109</v>
+        <v>601601.2956219121</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96815.40442900374</v>
+        <v>96815.40442900237</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_inv_cost.xlsx
+++ b/results/[0_basic]_#_inv_cost.xlsx
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>136044.8023863496</v>
+        <v>136044.8023863495</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661812</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57939.83243172245</v>
+        <v>57939.83243172235</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42528.20226193505</v>
+        <v>42528.20226193345</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>287602.509905369</v>
+        <v>287602.5099053701</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129606.8557784683</v>
+        <v>129606.8557784699</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54255.41119000787</v>
+        <v>54255.41119001148</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>600282.0661497001</v>
+        <v>600282.0661496968</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96756.12588925863</v>
+        <v>96756.12588925491</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_inv_cost.xlsx
+++ b/results/[0_basic]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,21 +481,51 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10828.99756470087</v>
+        <v>10522.66555618711</v>
       </c>
       <c r="B2" t="n">
-        <v>4884.827730520959</v>
+        <v>5076.495620934485</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129949.7480160424</v>
+        <v>130562.4731657497</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -516,10 +546,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>199836.2688324001</v>
       </c>
       <c r="J2" t="n">
-        <v>57928.76695775077</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>183081.44584818</v>
+      </c>
+      <c r="M2" t="n">
+        <v>62175.91780157999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>58857.50792331713</v>
+      </c>
+      <c r="P2" t="n">
+        <v>35962.62513703933</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,18 +632,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47727.40197800326</v>
+        <v>46443.51212009982</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>281422.3317862679</v>
+        <v>286164.1083104449</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -619,10 +697,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>141991.5214042781</v>
       </c>
       <c r="J2" t="n">
-        <v>126943.1410739935</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>767752.3378851654</v>
+      </c>
+      <c r="M2" t="n">
+        <v>188956.7656032815</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>126434.595901517</v>
+      </c>
+      <c r="P2" t="n">
+        <v>55480.39817668256</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +783,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52552.25559528896</v>
+        <v>54435.5778145442</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>601601.2956219121</v>
+        <v>592470.8617094352</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -722,10 +848,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>600875.0747496681</v>
       </c>
       <c r="J2" t="n">
-        <v>96815.40442900237</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605205.4286943764</v>
+      </c>
+      <c r="M2" t="n">
+        <v>377130.4891031699</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100349.0176024253</v>
+      </c>
+      <c r="P2" t="n">
+        <v>169606.1337546739</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,12 +934,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -828,6 +1002,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,12 +1085,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -931,6 +1153,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,12 +1236,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -1034,6 +1304,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[0_basic]_#_inv_cost.xlsx
+++ b/results/[0_basic]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,18 +481,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10807.88582146178</v>
+        <v>10584.5234</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,22 +534,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>136044.8023863495</v>
+        <v>136360.1420617428</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>185172.621913662</v>
       </c>
       <c r="J2" t="n">
-        <v>57939.83243172235</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>214214.4583563833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61083.44375382986</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>58910.80875217319</v>
+      </c>
+      <c r="P2" t="n">
+        <v>35963.45579954446</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,18 +632,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42528.20226193345</v>
+        <v>40817.7675482059</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>287602.5099053701</v>
+        <v>293150.8718583849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -619,10 +697,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>123407.4134469278</v>
       </c>
       <c r="J2" t="n">
-        <v>129606.8557784699</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>801914.1603530986</v>
+      </c>
+      <c r="M2" t="n">
+        <v>189032.2597449066</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>129426.0491110523</v>
+      </c>
+      <c r="P2" t="n">
+        <v>60334.7370904433</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +783,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54255.41119001148</v>
+        <v>55564.60215131454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>600282.0661496968</v>
+        <v>594260.1478295899</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -722,10 +848,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>545734.2878419658</v>
       </c>
       <c r="J2" t="n">
-        <v>96756.12588925491</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>709443.6403042184</v>
+      </c>
+      <c r="M2" t="n">
+        <v>384121.5613883798</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99390.18000258053</v>
+      </c>
+      <c r="P2" t="n">
+        <v>172000.8904480069</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,12 +934,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -828,6 +1002,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,12 +1085,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -931,6 +1153,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,12 +1236,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -1034,6 +1304,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[0_basic]_#_inv_cost.xlsx
+++ b/results/[0_basic]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,15 +506,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -525,7 +520,7 @@
         <v>10522.66555618711</v>
       </c>
       <c r="B2" t="n">
-        <v>5076.495620934485</v>
+        <v>5076.495620935125</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -534,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130562.4731657497</v>
+        <v>130562.4731657491</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -561,13 +556,10 @@
         <v>62175.91780157999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58857.50792331712</v>
       </c>
       <c r="O2" t="n">
-        <v>58857.50792331713</v>
-      </c>
-      <c r="P2" t="n">
-        <v>35962.62513703933</v>
+        <v>35962.62513703931</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,15 +649,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -673,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46443.51212009982</v>
+        <v>46443.51212010016</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -685,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>286164.1083104449</v>
+        <v>286164.108310445</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -697,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>141991.5214042781</v>
+        <v>141991.5214042782</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>767752.3378851654</v>
+        <v>767752.3378851652</v>
       </c>
       <c r="M2" t="n">
         <v>188956.7656032815</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>126434.5959015181</v>
       </c>
       <c r="O2" t="n">
-        <v>126434.595901517</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55480.39817668256</v>
+        <v>55480.3981766825</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,15 +792,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -824,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54435.5778145442</v>
+        <v>54435.57781454312</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -836,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>592470.8617094352</v>
+        <v>592470.8617094314</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -848,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>600875.0747496681</v>
+        <v>600875.074749667</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -857,19 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>605205.4286943764</v>
+        <v>605205.4286943784</v>
       </c>
       <c r="M2" t="n">
         <v>377130.4891031699</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>100349.017602429</v>
       </c>
       <c r="O2" t="n">
-        <v>100349.0176024253</v>
-      </c>
-      <c r="P2" t="n">
-        <v>169606.1337546739</v>
+        <v>169606.1337546742</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,15 +935,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1017,9 +988,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1034,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,15 +1078,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1168,9 +1131,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1185,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,15 +1221,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1319,9 +1274,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
